--- a/bench/results.xlsx
+++ b/bench/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA43A8-2A47-5547-9E4B-56495E3E061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424B9E1-2041-464B-9559-390F328DF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{64AF3E00-AF30-AB47-A1E9-A89BC26FAE70}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{64AF3E00-AF30-AB47-A1E9-A89BC26FAE70}"/>
   </bookViews>
   <sheets>
-    <sheet name="Area Minimized" sheetId="1" r:id="rId1"/>
+    <sheet name="Area Minimized Results" sheetId="1" r:id="rId1"/>
     <sheet name="Area Plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -114,9 +114,6 @@
     <t>S-&gt;Z Energy (nJ)</t>
   </si>
   <si>
-    <t>Leakage Power (nW)</t>
-  </si>
-  <si>
     <t>CMOS Area (um^2)</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>10-input 8b Mux</t>
+  </si>
+  <si>
+    <t>Leakage Power (W)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +190,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,6 +503,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area (a.u.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1474,9 +1532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED39ECA-0ECC-3E44-A9C9-9795C2C70BB5}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35:M35"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,13 +1611,26 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8.9500000000000001E-10</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>14.6412</v>
@@ -1578,7 +1649,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1623,13 +1694,24 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>29.282399999999999</v>
@@ -1648,7 +1730,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1693,13 +1775,24 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>80.262</v>
@@ -1718,7 +1811,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1796,13 +1889,24 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>0.5292</v>
@@ -1821,7 +1925,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <f>3.78*3.78*2</f>
@@ -1900,13 +2004,24 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1">
         <v>3.8807999999999998</v>
@@ -1925,7 +2040,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1">
         <f>3.78*3.78*4</f>
@@ -2004,13 +2119,24 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1">
         <v>13.935600000000001</v>
@@ -2029,7 +2155,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
         <f>3.78*3.78*10</f>
@@ -2058,14 +2184,20 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="C42:M42"/>
     <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C41:M41"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="C28:M28"/>
     <mergeCell ref="C29:M29"/>
@@ -2088,62 +2220,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74385724-B559-854F-A5A1-4764DD491808}">
-  <dimension ref="A10:C13"/>
+  <dimension ref="A10:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <f>'Area Minimized Results'!C7</f>
+        <v>14.6412</v>
+      </c>
+      <c r="C11">
+        <f>'Area Minimized Results'!C28</f>
+        <v>0.5292</v>
+      </c>
+      <c r="D11">
+        <f>B11/C11</f>
+        <v>27.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <f>'Area Minimized'!C7</f>
-        <v>14.6412</v>
-      </c>
-      <c r="C11">
-        <f>'Area Minimized'!C28</f>
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <f>'Area Minimized Results'!C14</f>
+        <v>29.282399999999999</v>
+      </c>
+      <c r="C12">
+        <f>'Area Minimized Results'!C35</f>
+        <v>3.8807999999999998</v>
+      </c>
+      <c r="D12">
+        <f>B12/C12</f>
+        <v>7.5454545454545459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <f>'Area Minimized'!C14</f>
-        <v>29.282399999999999</v>
-      </c>
-      <c r="C12">
-        <f>'Area Minimized'!C35</f>
-        <v>3.8807999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
       <c r="B13">
-        <f>'Area Minimized'!C21</f>
+        <f>'Area Minimized Results'!C21</f>
         <v>80.262</v>
       </c>
       <c r="C13">
-        <f>'Area Minimized'!C42</f>
+        <f>'Area Minimized Results'!C42</f>
         <v>13.935600000000001</v>
+      </c>
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>5.7594936708860756</v>
       </c>
     </row>
   </sheetData>

--- a/bench/results.xlsx
+++ b/bench/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/bench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424B9E1-2041-464B-9559-390F328DF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59C195-ED2A-FC4F-BC66-B98BCF3D9160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{64AF3E00-AF30-AB47-A1E9-A89BC26FAE70}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Area</t>
   </si>
@@ -108,12 +108,6 @@
     <t>S-&gt;Z Delay (ns)</t>
   </si>
   <si>
-    <t>I-&gt;Z Energy (nJ)</t>
-  </si>
-  <si>
-    <t>S-&gt;Z Energy (nJ)</t>
-  </si>
-  <si>
     <t>CMOS Area (um^2)</t>
   </si>
   <si>
@@ -139,6 +133,18 @@
   </si>
   <si>
     <t>Leakage Power (W)</t>
+  </si>
+  <si>
+    <t>I-&gt;Z Power (W)</t>
+  </si>
+  <si>
+    <t>S-&gt;Z Power (W)</t>
+  </si>
+  <si>
+    <t>IS-&gt;Z Power (W)</t>
+  </si>
+  <si>
+    <t>Load Cap (pF)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED39ECA-0ECC-3E44-A9C9-9795C2C70BB5}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:M14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,68 +1551,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="E3">
+        <v>9.9201600000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0.1855637</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.9400000000000004E-6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1613,127 +1641,109 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
-        <v>8.9500000000000001E-10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="E6" s="5">
+        <v>1.73E-6</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14.6412</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.0200000000000002E-6</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8.9500000000000001E-10</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.6412</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>29.282399999999999</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.6399999999999999E-9</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1747,74 +1757,76 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>29.282399999999999</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1">
-        <v>80.262</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4.4699999999999997E-9</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1828,109 +1840,108 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>80.262</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24">
-        <v>1000</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>1000</v>
-      </c>
-      <c r="I24">
-        <v>1000</v>
-      </c>
-      <c r="J24">
-        <v>1000</v>
-      </c>
-      <c r="K24">
-        <v>1000</v>
-      </c>
-      <c r="L24">
-        <v>1000</v>
-      </c>
-      <c r="M24">
-        <v>1000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <v>1000</v>
+      </c>
+      <c r="L26">
+        <v>1000</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.5292</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <f>3.78*3.78*2</f>
-        <v>28.576799999999999</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1943,109 +1954,109 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5292</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-      <c r="F31">
-        <v>1000</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>1000</v>
-      </c>
-      <c r="I31">
-        <v>1000</v>
-      </c>
-      <c r="J31">
-        <v>1000</v>
-      </c>
-      <c r="K31">
-        <v>1000</v>
-      </c>
-      <c r="L31">
-        <v>1000</v>
-      </c>
-      <c r="M31">
-        <v>1000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <f>3.78*3.78*2</f>
+        <v>28.576799999999999</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1000</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <v>1000</v>
+      </c>
+      <c r="L33">
+        <v>1000</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.8807999999999998</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1">
-        <f>3.78*3.78*4</f>
-        <v>57.153599999999997</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2058,109 +2069,109 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.8807999999999998</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38">
-        <v>1000</v>
-      </c>
-      <c r="D38">
-        <v>1000</v>
-      </c>
-      <c r="E38">
-        <v>1000</v>
-      </c>
-      <c r="F38">
-        <v>1000</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38">
-        <v>1000</v>
-      </c>
-      <c r="I38">
-        <v>1000</v>
-      </c>
-      <c r="J38">
-        <v>1000</v>
-      </c>
-      <c r="K38">
-        <v>1000</v>
-      </c>
-      <c r="L38">
-        <v>1000</v>
-      </c>
-      <c r="M38">
-        <v>1000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <f>3.78*3.78*4</f>
+        <v>57.153599999999997</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>1000</v>
+      </c>
+      <c r="I40">
+        <v>1000</v>
+      </c>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+      <c r="K40">
+        <v>1000</v>
+      </c>
+      <c r="L40">
+        <v>1000</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1">
-        <v>13.935600000000001</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="1">
-        <f>3.78*3.78*10</f>
-        <v>142.88399999999999</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2172,47 +2183,87 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>13.935600000000001</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <f>3.78*3.78*10</f>
+        <v>142.88399999999999</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C42:M42"/>
+  <mergeCells count="25">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="C45:M45"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C36:M36"/>
     <mergeCell ref="C43:M43"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M36"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C38:M38"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2236,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <f>'Area Minimized Results'!C7</f>
+        <f>'Area Minimized Results'!C9</f>
         <v>14.6412</v>
       </c>
       <c r="C11">
-        <f>'Area Minimized Results'!C28</f>
+        <f>'Area Minimized Results'!C30</f>
         <v>0.5292</v>
       </c>
       <c r="D11">
@@ -2261,14 +2312,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <f>'Area Minimized Results'!C14</f>
+        <f>'Area Minimized Results'!C16</f>
         <v>29.282399999999999</v>
       </c>
       <c r="C12">
-        <f>'Area Minimized Results'!C35</f>
+        <f>'Area Minimized Results'!C37</f>
         <v>3.8807999999999998</v>
       </c>
       <c r="D12">
@@ -2278,14 +2329,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <f>'Area Minimized Results'!C21</f>
+        <f>'Area Minimized Results'!C23</f>
         <v>80.262</v>
       </c>
       <c r="C13">
-        <f>'Area Minimized Results'!C42</f>
+        <f>'Area Minimized Results'!C44</f>
         <v>13.935600000000001</v>
       </c>
       <c r="D13">
